--- a/Data/SpeakerCategories.xlsx
+++ b/Data/SpeakerCategories.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satvi\OneDrive\Desktop\Satvik\College\Research\Yupik\Yupik_Forced_Aligner\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B1D8EF-0AF4-40FC-B3ED-591B1D6513CB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA5D0DC-9A60-414F-BD20-C701BCD97048}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{4E50A588-BB2B-4299-80EC-85261BA46678}"/>
   </bookViews>
